--- a/biology/Botanique/Sarcobataceae/Sarcobataceae.xlsx
+++ b/biology/Botanique/Sarcobataceae/Sarcobataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Sarcobatacées regroupe des plantes dicotylédones ; elle ne comprend qu'une ou deux espèces Sarcobatus vermiculatus (et Sarcobatus baileyi).
 C'est une plante succulente, arbustive, épineuse, des zones salines des régions tempérées à désertiques de l'ouest de l'Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Sarcobatus qui vient du grec σαρκός / sarkos, chair, et βάτος / batos, ronce, buisson, en référence à la chair épaisse de cette plante succulente et à ses épines.
 </t>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] cette plante était assignée à la famille Chenopodiaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette plante était assignée à la famille Chenopodiaceae.
 La classification phylogénétique donne à cette plante le rang de famille dans l'ordre des Caryophyllales.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 mai 2010)[2] et DELTA Angio           (4 mai 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 mai 2010) et DELTA Angio           (4 mai 2010) :
 genre Sarcobatus</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 mai 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 mai 2010) :
 genre Sarcobatus
 Sarcobatus vermiculatus
 Auquel il faut peut-être ajouter:
